--- a/views/report/_monevkeg.xlsx
+++ b/views/report/_monevkeg.xlsx
@@ -11,28 +11,51 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Datang</t>
-  </si>
-  <si>
-    <t>Pulang</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kegiatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indikator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realisasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permasalahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekomendasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinerja</t>
   </si>
 </sst>
 </file>
@@ -40,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -107,9 +130,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -129,44 +160,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.38775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.27551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="6.93877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
